--- a/biology/Médecine/Bienvenue_à_Marly-Gomont/Bienvenue_à_Marly-Gomont.xlsx
+++ b/biology/Médecine/Bienvenue_à_Marly-Gomont/Bienvenue_à_Marly-Gomont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bienvenue_%C3%A0_Marly-Gomont</t>
+          <t>Bienvenue_à_Marly-Gomont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bienvenue à Marly-Gomont est une comédie franco-belge écrite et réalisée par Julien Rambaldi, sortie en 2016.
 Le film s'inspire de l'histoire du père du chanteur Kamini Zantoko, originaire du Zaïre (l'actuelle République démocratique du Congo).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bienvenue_%C3%A0_Marly-Gomont</t>
+          <t>Bienvenue_à_Marly-Gomont</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire débute dans les années 1970, venant d'obtenir son diplôme en France des études de médecine, Seyolo saisit l'opportunité de travailler en France à Marly-Gomont, une petite commune où il s'installe avec sa famille. La population voit d'un mauvais œil l'arrivée de cette famille noire dans leur village. À l'ouverture du cabinet de médecin, aucun client ne vient, les Marlysiens préfèrent se rendre dans un autre cabinet à 15 km pour éviter de consulter un médecin noir.   
 Le médecin (Seyolo), se voit obligé de s'intégrer et de mieux connaître les habitants. Il va se rendre régulièrement au tabac de la ville en jouant aux fléchettes ce qui va lui permettre de  sympathiser avec de nombreux habitants et de gagner leur confiance. Cependant, cela ne suffit pas et les rentrées d'argent se font attendre, c'est pourquoi le médecin se voit imposé de travailler chez un habitant pour l'aider à la ferme. Un soir, le médecin se fit interpeller par un habitant dont la femme est en train d'accoucher. Arrivé dans leur maison, la femme n'apprécie pas le médecin du fait de sa couleur de peau, mais se voit dans l'obligation dans une situation extrême de coopérer. Une fois l'accouchement fini, la femme remercie le médecin pour son aide précieuse. L'information de cette nouvelle naissance réussie par le médecin finit par circuler dans tout le village et les patients viennent de plus en plus au cabinet médical. Mais le rival du maire, lui-même en campagne pour se faire élire, va essayer de faire partir la famille Zantoko. Par de fausses accusations, il réussit à faire fermer le cabinet juste avant les élections municipales.    
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bienvenue_%C3%A0_Marly-Gomont</t>
+          <t>Bienvenue_à_Marly-Gomont</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Bienvenue à Marly-Gomont
 Titre de travail : Le Docteur de Kinshasa
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bienvenue_%C3%A0_Marly-Gomont</t>
+          <t>Bienvenue_à_Marly-Gomont</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Marc Zinga : Seyolo Zantoko, le père
@@ -627,7 +645,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bienvenue_%C3%A0_Marly-Gomont</t>
+          <t>Bienvenue_à_Marly-Gomont</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,9 +663,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage a lieu à Steenkerque, un village belge de l'entité de Braine-le-Comte[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu à Steenkerque, un village belge de l'entité de Braine-le-Comte.
 </t>
         </is>
       </c>
@@ -658,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bienvenue_%C3%A0_Marly-Gomont</t>
+          <t>Bienvenue_à_Marly-Gomont</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,10 +698,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sorties
-Le film sort le 8 juin 2016 en Belgique et en France.
-Box-office
-La semaine de sa sortie, le film totalise 174 000 entrées en France, se plaçant à la quatrième place des sorties de la semaine[2]. Initialement sorti sur une combinaison de 280 copies, ces bons résultats incitent Mars Films, le distributeur, à augmenter ce nombre à 473 copies au bout de deux semaines[2]. Le film totalise alors 27 % de ses entrées en Île-de-France même s'il était vu à l'origine comme plus destiné à la province[2]. En deux semaines, le film a atteint les 300 000 entrées, son seuil de rentabilité pour son producteur[2]. En France, le film termine son exploitation avec 558 220 entrées[3].
+          <t>Sorties</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film sort le 8 juin 2016 en Belgique et en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bienvenue_à_Marly-Gomont</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bienvenue_%C3%A0_Marly-Gomont</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La semaine de sa sortie, le film totalise 174 000 entrées en France, se plaçant à la quatrième place des sorties de la semaine. Initialement sorti sur une combinaison de 280 copies, ces bons résultats incitent Mars Films, le distributeur, à augmenter ce nombre à 473 copies au bout de deux semaines. Le film totalise alors 27 % de ses entrées en Île-de-France même s'il était vu à l'origine comme plus destiné à la province. En deux semaines, le film a atteint les 300 000 entrées, son seuil de rentabilité pour son producteur. En France, le film termine son exploitation avec 558 220 entrées.
 </t>
         </is>
       </c>
